--- a/tests/Templates/GroupTagTests_Simple_WithOutsideLink.xlsx
+++ b/tests/Templates/GroupTagTests_Simple_WithOutsideLink.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="615" windowWidth="15480" windowHeight="11460"/>
@@ -13,7 +13,7 @@
     <definedName name="Orders">Sheet1!$A$12:$J$13</definedName>
     <definedName name="OrdersRange2">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -132,21 +132,20 @@
     <t>&lt;&lt;sum&gt;&gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;group TotalLabel="SUM" GrandLabel="By All"&gt;&gt;</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>&lt;&lt;group TotalLabel="SUM" GrandLabel="By All SUM"&gt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="165" formatCode="mmm\-yy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -420,10 +419,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -476,7 +475,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -561,6 +560,11 @@
       <color rgb="FF9F7CFF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -954,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -962,10 +966,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -978,7 +982,7 @@
     <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" customHeight="1">
+    <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="48" t="s">
         <v>17</v>
@@ -992,7 +996,7 @@
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
     </row>
-    <row r="2" spans="1:10" ht="12.75">
+    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1004,7 +1008,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="18">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="34" t="s">
         <v>8</v>
@@ -1020,7 +1024,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="36"/>
       <c r="C4" s="33"/>
@@ -1032,14 +1036,14 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="32"/>
     </row>
-    <row r="6" spans="1:10" ht="12">
+    <row r="6" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="38" t="s">
         <v>34</v>
@@ -1053,7 +1057,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="12">
+    <row r="7" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1063,7 +1067,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>1</v>
@@ -1078,7 +1082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12">
+    <row r="9" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="41" t="s">
         <v>19</v>
@@ -1098,10 +1102,10 @@
       </c>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="1:10" ht="12">
+    <row r="10" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="50" t="str">
         <f>J13</f>
@@ -1115,7 +1119,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="22.5">
+    <row r="11" spans="1:10" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="20" t="s">
         <v>7</v>
@@ -1145,7 +1149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="47" t="s">
         <v>23</v>
@@ -1175,7 +1179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
@@ -1183,7 +1187,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="27"/>
       <c r="G13" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>35</v>
@@ -1193,7 +1197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="31"/>
@@ -1205,7 +1209,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="51"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>4</v>
@@ -1214,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12">
+    <row r="16" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="46" t="s">
         <v>32</v>
@@ -1226,7 +1230,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="7:9">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
